--- a/biology/Mycologie/Fusarium_oxysporum/Fusarium_oxysporum.xlsx
+++ b/biology/Mycologie/Fusarium_oxysporum/Fusarium_oxysporum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fusarium oxysporum est une espèce de champignons ascomycètes de la famille des Nectriaceae.
 Comme c'est le cas de tous les Fusarium, il s'agit de la forme de reproduction asexuée d'un ascomycète, mais son téléomorphe est inconnu.
-Fusarium oxysporum est un complexe d'espèces telluriques, ubiquistes, parasites de plantes, comprenant de nombreuses formae speciales (f. sp.), qui infectent collectivement plus de 100 hôtes différents, provoquant des pertes économiques importantes chez de nombreuses plantes cultivées comme le bananier, le cotonnier, le melon, la tomate, etc.[2]
-Une variété australienne est capable de dissoudre l'or de la roche et de le concentrer dans son mycelium, ce qui ouvre des perspectives en matière de prospection[3]. 
+Fusarium oxysporum est un complexe d'espèces telluriques, ubiquistes, parasites de plantes, comprenant de nombreuses formae speciales (f. sp.), qui infectent collectivement plus de 100 hôtes différents, provoquant des pertes économiques importantes chez de nombreuses plantes cultivées comme le bananier, le cotonnier, le melon, la tomate, etc.
+Une variété australienne est capable de dissoudre l'or de la roche et de le concentrer dans son mycelium, ce qui ouvre des perspectives en matière de prospection. 
 </t>
         </is>
       </c>
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,11 +554,13 @@
           <t>Incidences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur plantes Fusarium oxysporum, ou ses formes spécialisées, sont responsables de diverses maladies, la principale étant le flétrissement vasculaire caractérisée par un flétrissement des plantes dû à l'envahissement des vaisseaux du xylème par le pathogène.
 Diverses tentatives d'utilisation de F. oxysporum comme mycoherbicide ont été faites (agent vert).
-F. oxysporum est considérée comme la seconde espèce de Fusarium responsable d'infections chez l'homme (après F. solani)[4]
+F. oxysporum est considérée comme la seconde espèce de Fusarium responsable d'infections chez l'homme (après F. solani)
 </t>
         </is>
       </c>
@@ -575,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Catalogue of Life                                   (1 octobre 2014)[1] :	
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (1 octobre 2014) :	
 Cylindrophora albedinis Kill. &amp; Maire 1930,
 Fusarium albedinis (Kill. &amp; Maire) Malençon 1934,
 Fusarium albidoviolaceum Dasz. 1912,
@@ -613,8 +634,43 @@
 Fusisporium lagenariae Schwein. 1832,
 Fusoma blasticola (Rostr.) Sacc. &amp; Traverso 1911,
 Fusoma pini Hartig.
-Liste des espèces, variétés et formes spéciales
-Selon NCBI  (1 octobre 2014)[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fusarium_oxysporum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusarium_oxysporum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces, variétés et formes spéciales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (1 octobre 2014) :
 forme Fusarium oxysporum f. cubense
 forme Fusarium oxysporum f. cucumerinum
 forme Fusarium oxysporum f. gladioli
